--- a/biology/Botanique/Raphia_farinifera/Raphia_farinifera.xlsx
+++ b/biology/Botanique/Raphia_farinifera/Raphia_farinifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raphia farinifera est une espèce de plantes de la famille des Arecaceae (les palmiers), du genre Raphia, originaire de Madagascar et d'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un palmier dont le stipe (faux-tronc) atteint 10 m de haut et qui émet des drageons.
 Les feuilles sont pennées, longues en général de 8 à 10 m  mais pouvant atteindre 20 m de long. Elles sont portées par des pétioles rigides et larges avec un bord épineux surtout à la base.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve principalement à Madagascar, mais aussi le long de la côte orientale de l’Afrique, dans les milieux marécageux et boisés et le long des rivages des fleuves.
 Liste de pays : Angola, Bénin, Burkina Faso, Cameroun, République du Congo, Gambie, Ghana, Guinée, Côte d'Ivoire, Kenya, Madagascar, Malawi, Martinique, Maurice, Mozambique, Nigeria, La Réunion, Sénégal, Seychelles, Sierra Leone, Tanzanie, Togo, Ouganda, Zambie, Zimbabwe.
@@ -579,11 +595,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce  Raphia farinifera  a été décrite par les botanistes Joseph Gaertner et Nils Hylander en 1952.
-Synonyme
-Raphia ruffia (Jacq.) Mart.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce  Raphia farinifera  a été décrite par les botanistes Joseph Gaertner et Nils Hylander en 1952.
+</t>
         </is>
       </c>
     </row>
@@ -608,10 +625,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Raphia ruffia (Jacq.) Mart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raphia_farinifera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raphia_farinifera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Angola (kikongo, lingala, kumbundu, nguanguela, qinoco, umbudu)
 Bénin (bariba, dendu, ditamani, kotokoli - adja, fon, goum, mina, yoruba)
@@ -640,34 +695,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Raphia_farinifera</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Raphia_farinifera</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Raphia farinifera et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisation
-Les feuilles sont utilisées pour la production du raphia, fibre employée surtout en floriculture et en horticulture (liens), mais également en sparterie.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont utilisées pour la production du raphia, fibre employée surtout en floriculture et en horticulture (liens), mais également en sparterie.
 Les pétioles foliaires, robustes mais flexibles, sont employés à l'identique du bambou pour construire des habitations et des meubles variés.
 Le cœur de jeunes pousses peut être consommé. À partir de la moelle du stipe, avant la floraison particulièrement riche en amidon, est extrait le sagou, une farine alimentaire (Joseph Gaertner avait nommé l'espèce Sagus farinifera pour cette propriété).
 </t>
